--- a/项目计划/WBS/WBS表/SRA2021_G05_WBS表v0.0.2.xlsx
+++ b/项目计划/WBS/WBS表/SRA2021_G05_WBS表v0.0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="11790"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,12 +1106,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,26 +1145,21 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,46 +1173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,37 +1188,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,9 +1225,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1293,7 +1257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,6 +1266,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,7 +1309,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,175 +1489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,21 +1641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1687,22 +1659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,6 +1689,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1737,17 +1719,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,152 +1743,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1956,13 +1943,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,24 +1958,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2028,20 +1997,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2391,22 +2351,22 @@
   <sheetPr/>
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B112" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.7583333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="11.7592592592593" customWidth="1"/>
+    <col min="3" max="3" width="10.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="29.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="12" max="12" width="69.85" style="1" customWidth="1"/>
-    <col min="13" max="13" width="60.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="69.8518518518518" style="1" customWidth="1"/>
+    <col min="13" max="13" width="60.8796296296296" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
+    <row r="1" ht="15.6" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2398,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
+    <row r="3" ht="14.25" customHeight="1" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2455,7 +2415,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" ht="14.25" customHeight="1" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" ht="14.4" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2509,7 +2469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
+    <row r="6" ht="14.25" customHeight="1" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2532,11 +2492,11 @@
       <c r="L6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:13">
+    <row r="7" ht="14.25" customHeight="1" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -2550,10 +2510,10 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" ht="14.4" spans="1:13">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -2581,20 +2541,20 @@
       <c r="I8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:13">
+    <row r="9" ht="14.25" customHeight="1" spans="1:13">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +2588,7 @@
       <c r="K9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>36</v>
       </c>
       <c r="M9" s="9" t="s">
@@ -2665,7 +2625,7 @@
       <c r="K10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="9" t="s">
@@ -2702,7 +2662,7 @@
       <c r="K11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="22" t="s">
         <v>41</v>
       </c>
       <c r="M11" s="9" t="s">
@@ -2741,7 +2701,7 @@
       <c r="K12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="22" t="s">
         <v>49</v>
       </c>
       <c r="M12" s="9" t="s">
@@ -2778,7 +2738,7 @@
       <c r="K13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="22" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -2815,7 +2775,7 @@
       <c r="K14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="22" t="s">
         <v>57</v>
       </c>
       <c r="M14" s="9" t="s">
@@ -2854,7 +2814,7 @@
       <c r="K15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="22" t="s">
         <v>62</v>
       </c>
       <c r="M15" s="9" t="s">
@@ -2891,7 +2851,7 @@
       <c r="K16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="22" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="9" t="s">
@@ -2928,7 +2888,7 @@
       <c r="K17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="22" t="s">
         <v>70</v>
       </c>
       <c r="M17" s="9" t="s">
@@ -2967,7 +2927,7 @@
       <c r="K18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="22" t="s">
         <v>75</v>
       </c>
       <c r="M18" s="9" t="s">
@@ -3004,7 +2964,7 @@
       <c r="K19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="22" t="s">
         <v>79</v>
       </c>
       <c r="M19" s="9" t="s">
@@ -3041,7 +3001,7 @@
       <c r="K20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="22" t="s">
         <v>82</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -3078,7 +3038,7 @@
       <c r="K21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="22" t="s">
         <v>86</v>
       </c>
       <c r="M21" s="9" t="s">
@@ -3117,7 +3077,7 @@
       <c r="K22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="22" t="s">
         <v>90</v>
       </c>
       <c r="M22" s="9" t="s">
@@ -3154,7 +3114,7 @@
       <c r="K23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="22" t="s">
         <v>79</v>
       </c>
       <c r="M23" s="9" t="s">
@@ -3191,7 +3151,7 @@
       <c r="K24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="22" t="s">
         <v>82</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -3228,7 +3188,7 @@
       <c r="K25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="22" t="s">
         <v>99</v>
       </c>
       <c r="M25" s="9" t="s">
@@ -3269,7 +3229,7 @@
       <c r="K26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>103</v>
       </c>
       <c r="M26" s="9" t="s">
@@ -3308,14 +3268,14 @@
       <c r="K27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="22" t="s">
         <v>108</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:13">
+    <row r="28" ht="14.25" customHeight="1" spans="1:13">
       <c r="A28" s="9" t="s">
         <v>110</v>
       </c>
@@ -3345,7 +3305,7 @@
       <c r="K28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>112</v>
       </c>
       <c r="M28" s="9" t="s">
@@ -3382,7 +3342,7 @@
       <c r="K29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="22" t="s">
         <v>112</v>
       </c>
       <c r="M29" s="9" t="s">
@@ -3419,7 +3379,7 @@
       <c r="K30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="22" t="s">
         <v>112</v>
       </c>
       <c r="M30" s="9" t="s">
@@ -3456,7 +3416,7 @@
       <c r="K31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="22" t="s">
         <v>112</v>
       </c>
       <c r="M31" s="9" t="s">
@@ -3493,7 +3453,7 @@
       <c r="K32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="22" t="s">
         <v>112</v>
       </c>
       <c r="M32" s="9" t="s">
@@ -3530,7 +3490,7 @@
       <c r="K33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="22" t="s">
         <v>112</v>
       </c>
       <c r="M33" s="9" t="s">
@@ -3567,7 +3527,7 @@
       <c r="K34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L34" s="22" t="s">
         <v>124</v>
       </c>
       <c r="M34" s="9" t="s">
@@ -3606,7 +3566,7 @@
       <c r="K35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="22" t="s">
         <v>128</v>
       </c>
       <c r="M35" s="9" t="s">
@@ -3643,7 +3603,7 @@
       <c r="K36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="22" t="s">
         <v>132</v>
       </c>
       <c r="M36" s="9" t="s">
@@ -3684,7 +3644,7 @@
       <c r="K37" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="22" t="s">
         <v>136</v>
       </c>
       <c r="M37" s="9" t="s">
@@ -3721,7 +3681,7 @@
       <c r="K38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="22" t="s">
         <v>140</v>
       </c>
       <c r="M38" s="9" t="s">
@@ -3758,7 +3718,7 @@
       <c r="K39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="22" t="s">
         <v>140</v>
       </c>
       <c r="M39" s="9" t="s">
@@ -4999,7 +4959,7 @@
       <c r="B73" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="10" t="s">
         <v>227</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -5038,7 +4998,7 @@
         <v>230</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="26"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="9" t="s">
         <v>231</v>
       </c>
@@ -5075,7 +5035,7 @@
         <v>232</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="C75" s="26"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="9" t="s">
         <v>233</v>
       </c>
@@ -5112,7 +5072,7 @@
         <v>234</v>
       </c>
       <c r="B76" s="12"/>
-      <c r="C76" s="26"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="9" t="s">
         <v>235</v>
       </c>
@@ -5149,7 +5109,7 @@
         <v>236</v>
       </c>
       <c r="B77" s="12"/>
-      <c r="C77" s="26"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="9" t="s">
         <v>237</v>
       </c>
@@ -5186,7 +5146,7 @@
         <v>238</v>
       </c>
       <c r="B78" s="12"/>
-      <c r="C78" s="26"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="9" t="s">
         <v>239</v>
       </c>
@@ -5223,7 +5183,7 @@
         <v>240</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="26"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="9" t="s">
         <v>241</v>
       </c>
@@ -5260,7 +5220,7 @@
         <v>242</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="12" t="s">
         <v>243</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -5299,7 +5259,7 @@
         <v>244</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="26"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="9" t="s">
         <v>245</v>
       </c>
@@ -5336,7 +5296,7 @@
         <v>246</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="12" t="s">
         <v>247</v>
       </c>
       <c r="D82" s="9" t="s">
@@ -5375,7 +5335,7 @@
         <v>249</v>
       </c>
       <c r="B83" s="12"/>
-      <c r="C83" s="26"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="9" t="s">
         <v>250</v>
       </c>
@@ -5412,7 +5372,7 @@
         <v>251</v>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="27"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="9" t="s">
         <v>252</v>
       </c>
@@ -5448,13 +5408,13 @@
       <c r="A85" s="14">
         <v>5.1</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E85" s="11">
@@ -5489,9 +5449,9 @@
       <c r="A86" s="14">
         <v>5.2</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="28" t="s">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="23" t="s">
         <v>256</v>
       </c>
       <c r="E86" s="11">
@@ -5526,9 +5486,9 @@
       <c r="A87" s="14">
         <v>5.3</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="28" t="s">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="23" t="s">
         <v>258</v>
       </c>
       <c r="E87" s="11">
@@ -5560,12 +5520,12 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="29">
+      <c r="A88" s="14">
         <v>5.4</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="28" t="s">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="23" t="s">
         <v>259</v>
       </c>
       <c r="E88" s="11">
@@ -5597,12 +5557,12 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="29">
+      <c r="A89" s="14">
         <v>5.5</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="28" t="s">
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="23" t="s">
         <v>261</v>
       </c>
       <c r="E89" s="11">
@@ -5634,14 +5594,14 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="29">
+      <c r="A90" s="14">
         <v>5.6</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26" t="s">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="23" t="s">
         <v>263</v>
       </c>
       <c r="E90" s="11">
@@ -5673,12 +5633,12 @@
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="29">
+      <c r="A91" s="14">
         <v>5.7</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="28" t="s">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="23" t="s">
         <v>258</v>
       </c>
       <c r="E91" s="11">
@@ -5710,35 +5670,35 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="30">
+      <c r="A92" s="24">
         <v>6.1</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="33" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E92" s="34">
+      <c r="E92" s="28">
         <v>5</v>
       </c>
-      <c r="F92" s="34">
-        <v>1</v>
-      </c>
-      <c r="G92" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I92" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J92" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K92" s="34" t="s">
+      <c r="F92" s="28">
+        <v>1</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K92" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L92" s="14" t="s">
@@ -5749,33 +5709,33 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="30">
+      <c r="A93" s="24">
         <v>6.2</v>
       </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="33" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="E93" s="34">
+      <c r="E93" s="28">
         <v>5</v>
       </c>
-      <c r="F93" s="34">
-        <v>1</v>
-      </c>
-      <c r="G93" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H93" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I93" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J93" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K93" s="34" t="s">
+      <c r="F93" s="28">
+        <v>1</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K93" s="28" t="s">
         <v>48</v>
       </c>
       <c r="L93" s="14" t="s">
@@ -5786,33 +5746,33 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="30">
+      <c r="A94" s="24">
         <v>6.3</v>
       </c>
-      <c r="B94" s="35"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="33" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="E94" s="34">
-        <v>1</v>
-      </c>
-      <c r="F94" s="34">
-        <v>1</v>
-      </c>
-      <c r="G94" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I94" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J94" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="K94" s="34" t="s">
+      <c r="E94" s="28">
+        <v>1</v>
+      </c>
+      <c r="F94" s="28">
+        <v>1</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J94" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K94" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L94" s="14" t="s">
@@ -5823,33 +5783,33 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="30">
+      <c r="A95" s="24">
         <v>6.4</v>
       </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="33" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="E95" s="34">
-        <v>1</v>
-      </c>
-      <c r="F95" s="34">
-        <v>1</v>
-      </c>
-      <c r="G95" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I95" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J95" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K95" s="34" t="s">
+      <c r="E95" s="28">
+        <v>1</v>
+      </c>
+      <c r="F95" s="28">
+        <v>1</v>
+      </c>
+      <c r="G95" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J95" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K95" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L95" s="14" t="s">
@@ -5860,33 +5820,33 @@
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="30">
+      <c r="A96" s="24">
         <v>6.5</v>
       </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="33" t="s">
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="E96" s="34">
-        <v>1</v>
-      </c>
-      <c r="F96" s="34">
-        <v>1</v>
-      </c>
-      <c r="G96" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I96" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J96" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K96" s="34" t="s">
+      <c r="E96" s="28">
+        <v>1</v>
+      </c>
+      <c r="F96" s="28">
+        <v>1</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J96" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K96" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L96" s="14" t="s">
@@ -5897,33 +5857,33 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="30">
+      <c r="A97" s="24">
         <v>6.6</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="33" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="E97" s="34">
-        <v>1</v>
-      </c>
-      <c r="F97" s="34">
-        <v>1</v>
-      </c>
-      <c r="G97" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J97" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K97" s="34" t="s">
+      <c r="E97" s="28">
+        <v>1</v>
+      </c>
+      <c r="F97" s="28">
+        <v>1</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K97" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L97" s="14" t="s">
@@ -5934,33 +5894,33 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="30">
+      <c r="A98" s="24">
         <v>6.7</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="33" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="E98" s="34">
-        <v>1</v>
-      </c>
-      <c r="F98" s="34">
-        <v>1</v>
-      </c>
-      <c r="G98" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J98" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K98" s="34" t="s">
+      <c r="E98" s="28">
+        <v>1</v>
+      </c>
+      <c r="F98" s="28">
+        <v>1</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K98" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L98" s="14" t="s">
@@ -5971,33 +5931,33 @@
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="30">
+      <c r="A99" s="24">
         <v>6.8</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="33" t="s">
+      <c r="B99" s="29"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="E99" s="34">
-        <v>1</v>
-      </c>
-      <c r="F99" s="34">
-        <v>1</v>
-      </c>
-      <c r="G99" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H99" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J99" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="K99" s="34" t="s">
+      <c r="E99" s="28">
+        <v>1</v>
+      </c>
+      <c r="F99" s="28">
+        <v>1</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J99" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K99" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L99" s="14" t="s">
@@ -6008,33 +5968,33 @@
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="30">
+      <c r="A100" s="24">
         <v>6.9</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="33" t="s">
+      <c r="B100" s="29"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E100" s="34">
-        <v>1</v>
-      </c>
-      <c r="F100" s="34">
-        <v>1</v>
-      </c>
-      <c r="G100" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J100" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K100" s="34" t="s">
+      <c r="E100" s="28">
+        <v>1</v>
+      </c>
+      <c r="F100" s="28">
+        <v>1</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J100" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K100" s="28" t="s">
         <v>34</v>
       </c>
       <c r="L100" s="14" t="s">
@@ -6045,33 +6005,33 @@
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="37">
+      <c r="A101" s="31">
         <v>6.1</v>
       </c>
-      <c r="B101" s="35"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="33" t="s">
+      <c r="B101" s="29"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="E101" s="34">
-        <v>1</v>
-      </c>
-      <c r="F101" s="34">
-        <v>1</v>
-      </c>
-      <c r="G101" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H101" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I101" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J101" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K101" s="34" t="s">
+      <c r="E101" s="28">
+        <v>1</v>
+      </c>
+      <c r="F101" s="28">
+        <v>1</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J101" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K101" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L101" s="14" t="s">
@@ -6082,33 +6042,33 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="30">
+      <c r="A102" s="24">
         <v>6.11</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="33" t="s">
+      <c r="B102" s="29"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E102" s="34">
-        <v>1</v>
-      </c>
-      <c r="F102" s="34">
-        <v>1</v>
-      </c>
-      <c r="G102" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I102" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J102" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K102" s="34" t="s">
+      <c r="E102" s="28">
+        <v>1</v>
+      </c>
+      <c r="F102" s="28">
+        <v>1</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J102" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K102" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L102" s="14" t="s">
@@ -6119,33 +6079,33 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="30">
+      <c r="A103" s="24">
         <v>6.12</v>
       </c>
-      <c r="B103" s="38"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="33" t="s">
+      <c r="B103" s="32"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E103" s="34">
+      <c r="E103" s="28">
         <v>5</v>
       </c>
-      <c r="F103" s="34">
-        <v>1</v>
-      </c>
-      <c r="G103" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H103" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I103" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J103" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="K103" s="34" t="s">
+      <c r="F103" s="28">
+        <v>1</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K103" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L103" s="14" t="s">
@@ -6156,13 +6116,13 @@
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="1:13">
-      <c r="A104" s="29">
+      <c r="A104" s="14">
         <v>7.1</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C104" s="41"/>
+      <c r="C104" s="35"/>
       <c r="D104" s="9" t="s">
         <v>33</v>
       </c>
@@ -6195,33 +6155,33 @@
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="42">
+      <c r="A105" s="14">
         <v>7.2</v>
       </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45" t="s">
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E105" s="46">
+      <c r="E105" s="11">
         <v>5</v>
       </c>
-      <c r="F105" s="46">
+      <c r="F105" s="11">
         <v>2</v>
       </c>
-      <c r="G105" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H105" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I105" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K105" s="46" t="s">
+      <c r="G105" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K105" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L105" s="9" t="s">
@@ -6232,33 +6192,33 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="42">
+      <c r="A106" s="14">
         <v>7.3</v>
       </c>
-      <c r="B106" s="43"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="45" t="s">
+      <c r="B106" s="36"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E106" s="46">
-        <v>1</v>
-      </c>
-      <c r="F106" s="46">
+      <c r="E106" s="11">
+        <v>1</v>
+      </c>
+      <c r="F106" s="11">
         <v>2</v>
       </c>
-      <c r="G106" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I106" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J106" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K106" s="46" t="s">
+      <c r="G106" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K106" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L106" s="9" t="s">
@@ -6269,33 +6229,33 @@
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="42">
+      <c r="A107" s="14">
         <v>7.4</v>
       </c>
-      <c r="B107" s="43"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="45" t="s">
+      <c r="B107" s="36"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E107" s="46">
-        <v>1</v>
-      </c>
-      <c r="F107" s="46">
+      <c r="E107" s="11">
+        <v>1</v>
+      </c>
+      <c r="F107" s="11">
         <v>2</v>
       </c>
-      <c r="G107" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I107" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J107" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K107" s="46" t="s">
+      <c r="G107" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L107" s="9" t="s">
@@ -6306,33 +6266,33 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="42">
+      <c r="A108" s="14">
         <v>7.5</v>
       </c>
-      <c r="B108" s="43"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="45" t="s">
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="11">
         <v>5</v>
       </c>
-      <c r="F108" s="46">
-        <v>1</v>
-      </c>
-      <c r="G108" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H108" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I108" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J108" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K108" s="46" t="s">
+      <c r="F108" s="11">
+        <v>1</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K108" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L108" s="9" t="s">
@@ -6343,33 +6303,33 @@
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="42">
+      <c r="A109" s="14">
         <v>7.6</v>
       </c>
-      <c r="B109" s="43"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="45" t="s">
+      <c r="B109" s="36"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E109" s="46">
-        <v>1</v>
-      </c>
-      <c r="F109" s="46">
-        <v>1</v>
-      </c>
-      <c r="G109" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H109" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I109" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J109" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K109" s="46" t="s">
+      <c r="E109" s="11">
+        <v>1</v>
+      </c>
+      <c r="F109" s="11">
+        <v>1</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K109" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L109" s="9" t="s">
@@ -6380,33 +6340,33 @@
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="42">
+      <c r="A110" s="14">
         <v>7.7</v>
       </c>
-      <c r="B110" s="43"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="45" t="s">
+      <c r="B110" s="36"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E110" s="46">
-        <v>1</v>
-      </c>
-      <c r="F110" s="46">
-        <v>1</v>
-      </c>
-      <c r="G110" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H110" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I110" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J110" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K110" s="46" t="s">
+      <c r="E110" s="11">
+        <v>1</v>
+      </c>
+      <c r="F110" s="11">
+        <v>1</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L110" s="9" t="s">
@@ -6417,33 +6377,33 @@
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="42">
+      <c r="A111" s="14">
         <v>7.8</v>
       </c>
-      <c r="B111" s="43"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="45" t="s">
+      <c r="B111" s="36"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E111" s="46">
-        <v>1</v>
-      </c>
-      <c r="F111" s="46">
-        <v>1</v>
-      </c>
-      <c r="G111" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I111" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J111" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K111" s="46" t="s">
+      <c r="E111" s="11">
+        <v>1</v>
+      </c>
+      <c r="F111" s="11">
+        <v>1</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K111" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L111" s="9" t="s">
@@ -6454,33 +6414,33 @@
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="30">
+      <c r="A112" s="24">
         <v>7.9</v>
       </c>
-      <c r="B112" s="43"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="45" t="s">
+      <c r="B112" s="36"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E112" s="46">
+      <c r="E112" s="11">
         <v>5</v>
       </c>
-      <c r="F112" s="46">
+      <c r="F112" s="11">
         <v>2</v>
       </c>
-      <c r="G112" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J112" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K112" s="46" t="s">
+      <c r="G112" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L112" s="9" t="s">
@@ -6491,33 +6451,33 @@
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="47">
+      <c r="A113" s="38">
         <v>7.1</v>
       </c>
-      <c r="B113" s="43"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="45" t="s">
+      <c r="B113" s="36"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E113" s="46">
-        <v>1</v>
-      </c>
-      <c r="F113" s="46">
-        <v>1</v>
-      </c>
-      <c r="G113" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H113" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I113" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J113" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K113" s="46" t="s">
+      <c r="E113" s="11">
+        <v>1</v>
+      </c>
+      <c r="F113" s="11">
+        <v>1</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L113" s="9" t="s">
@@ -6528,33 +6488,33 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="42">
+      <c r="A114" s="14">
         <v>7.11</v>
       </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="45" t="s">
+      <c r="B114" s="39"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E114" s="46">
+      <c r="E114" s="11">
         <v>2</v>
       </c>
-      <c r="F114" s="46">
-        <v>1</v>
-      </c>
-      <c r="G114" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H114" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="I114" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J114" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K114" s="46" t="s">
+      <c r="F114" s="11">
+        <v>1</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K114" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L114" s="9" t="s">
@@ -6565,35 +6525,35 @@
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="42">
+      <c r="A115" s="14">
         <v>8.1</v>
       </c>
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="45" t="s">
+      <c r="C115" s="42"/>
+      <c r="D115" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E115" s="46">
+      <c r="E115" s="11">
         <v>5</v>
       </c>
-      <c r="F115" s="46">
-        <v>1</v>
-      </c>
-      <c r="G115" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H115" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I115" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J115" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K115" s="46" t="s">
+      <c r="F115" s="11">
+        <v>1</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K115" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L115" s="9" t="s">
@@ -6604,33 +6564,33 @@
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="42">
+      <c r="A116" s="14">
         <v>8.2</v>
       </c>
-      <c r="B116" s="52"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="45" t="s">
+      <c r="B116" s="43"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E116" s="46">
-        <v>1</v>
-      </c>
-      <c r="F116" s="46">
-        <v>1</v>
-      </c>
-      <c r="G116" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H116" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I116" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J116" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K116" s="46" t="s">
+      <c r="E116" s="11">
+        <v>1</v>
+      </c>
+      <c r="F116" s="11">
+        <v>1</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K116" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L116" s="9" t="s">
@@ -6641,33 +6601,33 @@
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="42">
+      <c r="A117" s="14">
         <v>8.3</v>
       </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="45" t="s">
+      <c r="B117" s="43"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E117" s="46">
+      <c r="E117" s="11">
         <v>4</v>
       </c>
-      <c r="F117" s="46">
+      <c r="F117" s="11">
         <v>3</v>
       </c>
-      <c r="G117" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H117" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I117" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="J117" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K117" s="46" t="s">
+      <c r="G117" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K117" s="11" t="s">
         <v>48</v>
       </c>
       <c r="L117" s="9" t="s">
@@ -6678,33 +6638,33 @@
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="42">
+      <c r="A118" s="14">
         <v>8.4</v>
       </c>
-      <c r="B118" s="52"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="45" t="s">
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E118" s="46">
+      <c r="E118" s="11">
         <v>3</v>
       </c>
-      <c r="F118" s="46">
+      <c r="F118" s="11">
         <v>3</v>
       </c>
-      <c r="G118" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H118" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I118" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J118" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K118" s="46" t="s">
+      <c r="G118" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K118" s="11" t="s">
         <v>48</v>
       </c>
       <c r="L118" s="9" t="s">
@@ -6715,33 +6675,33 @@
       </c>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="42">
+      <c r="A119" s="14">
         <v>8.5</v>
       </c>
-      <c r="B119" s="52"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="45" t="s">
+      <c r="B119" s="43"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E119" s="46">
+      <c r="E119" s="11">
         <v>5</v>
       </c>
-      <c r="F119" s="46">
-        <v>1</v>
-      </c>
-      <c r="G119" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H119" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I119" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J119" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K119" s="46" t="s">
+      <c r="F119" s="11">
+        <v>1</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K119" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L119" s="9" t="s">
@@ -6752,33 +6712,33 @@
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="42">
+      <c r="A120" s="14">
         <v>9.6</v>
       </c>
-      <c r="B120" s="52"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="45" t="s">
+      <c r="B120" s="43"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E120" s="46">
+      <c r="E120" s="11">
         <v>5</v>
       </c>
-      <c r="F120" s="46">
-        <v>1</v>
-      </c>
-      <c r="G120" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I120" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J120" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K120" s="46" t="s">
+      <c r="F120" s="11">
+        <v>1</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K120" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L120" s="9" t="s">
@@ -6789,33 +6749,33 @@
       </c>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="42">
+      <c r="A121" s="14">
         <v>8.7</v>
       </c>
-      <c r="B121" s="54"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="45" t="s">
+      <c r="B121" s="45"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E121" s="46">
+      <c r="E121" s="11">
         <v>3</v>
       </c>
-      <c r="F121" s="46">
-        <v>1</v>
-      </c>
-      <c r="G121" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H121" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I121" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J121" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K121" s="46" t="s">
+      <c r="F121" s="11">
+        <v>1</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K121" s="11" t="s">
         <v>48</v>
       </c>
       <c r="L121" s="9" t="s">
@@ -6826,35 +6786,35 @@
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="42">
+      <c r="A122" s="14">
         <v>9.1</v>
       </c>
-      <c r="B122" s="50" t="s">
+      <c r="B122" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="C122" s="51"/>
-      <c r="D122" s="45" t="s">
+      <c r="C122" s="42"/>
+      <c r="D122" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E122" s="46">
+      <c r="E122" s="11">
         <v>5</v>
       </c>
-      <c r="F122" s="46">
-        <v>1</v>
-      </c>
-      <c r="G122" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H122" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I122" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J122" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K122" s="46" t="s">
+      <c r="F122" s="11">
+        <v>1</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K122" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L122" s="9" t="s">
@@ -6865,33 +6825,33 @@
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="42">
+      <c r="A123" s="14">
         <v>9.2</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="45" t="s">
+      <c r="B123" s="43"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E123" s="46">
-        <v>1</v>
-      </c>
-      <c r="F123" s="46">
-        <v>1</v>
-      </c>
-      <c r="G123" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H123" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I123" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J123" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K123" s="46" t="s">
+      <c r="E123" s="11">
+        <v>1</v>
+      </c>
+      <c r="F123" s="11">
+        <v>1</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K123" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L123" s="9" t="s">
@@ -6902,33 +6862,33 @@
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="42">
+      <c r="A124" s="14">
         <v>9.3</v>
       </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="45" t="s">
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E124" s="46">
-        <v>1</v>
-      </c>
-      <c r="F124" s="46">
-        <v>1</v>
-      </c>
-      <c r="G124" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I124" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J124" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K124" s="46" t="s">
+      <c r="E124" s="11">
+        <v>1</v>
+      </c>
+      <c r="F124" s="11">
+        <v>1</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K124" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L124" s="9" t="s">
@@ -6939,33 +6899,33 @@
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="42">
+      <c r="A125" s="14">
         <v>9.4</v>
       </c>
-      <c r="B125" s="52"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="45" t="s">
+      <c r="B125" s="43"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E125" s="46">
-        <v>1</v>
-      </c>
-      <c r="F125" s="46">
-        <v>1</v>
-      </c>
-      <c r="G125" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H125" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I125" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J125" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K125" s="46" t="s">
+      <c r="E125" s="11">
+        <v>1</v>
+      </c>
+      <c r="F125" s="11">
+        <v>1</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K125" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L125" s="9" t="s">
@@ -6976,33 +6936,33 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="42">
+      <c r="A126" s="14">
         <v>9.5</v>
       </c>
-      <c r="B126" s="52"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="45" t="s">
+      <c r="B126" s="43"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E126" s="46">
-        <v>1</v>
-      </c>
-      <c r="F126" s="46">
-        <v>1</v>
-      </c>
-      <c r="G126" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H126" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I126" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J126" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K126" s="46" t="s">
+      <c r="E126" s="11">
+        <v>1</v>
+      </c>
+      <c r="F126" s="11">
+        <v>1</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K126" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L126" s="9" t="s">
@@ -7013,33 +6973,33 @@
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="42">
+      <c r="A127" s="14">
         <v>9.6</v>
       </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="45" t="s">
+      <c r="B127" s="43"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E127" s="46">
+      <c r="E127" s="11">
         <v>5</v>
       </c>
-      <c r="F127" s="46">
-        <v>1</v>
-      </c>
-      <c r="G127" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H127" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I127" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J127" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K127" s="46" t="s">
+      <c r="F127" s="11">
+        <v>1</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K127" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L127" s="9" t="s">
@@ -7050,33 +7010,33 @@
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="42">
+      <c r="A128" s="14">
         <v>9.7</v>
       </c>
-      <c r="B128" s="52"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="45" t="s">
+      <c r="B128" s="43"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E128" s="46">
-        <v>1</v>
-      </c>
-      <c r="F128" s="46">
-        <v>1</v>
-      </c>
-      <c r="G128" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I128" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J128" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K128" s="46" t="s">
+      <c r="E128" s="11">
+        <v>1</v>
+      </c>
+      <c r="F128" s="11">
+        <v>1</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K128" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L128" s="9" t="s">
@@ -7087,33 +7047,33 @@
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="42">
+      <c r="A129" s="14">
         <v>9.8</v>
       </c>
-      <c r="B129" s="52"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="45" t="s">
+      <c r="B129" s="43"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E129" s="46">
+      <c r="E129" s="11">
         <v>3</v>
       </c>
-      <c r="F129" s="46">
-        <v>1</v>
-      </c>
-      <c r="G129" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H129" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I129" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="J129" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K129" s="46" t="s">
+      <c r="F129" s="11">
+        <v>1</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K129" s="11" t="s">
         <v>48</v>
       </c>
       <c r="L129" s="9" t="s">
@@ -7124,33 +7084,33 @@
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="42">
+      <c r="A130" s="14">
         <v>9.9</v>
       </c>
-      <c r="B130" s="52"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="45" t="s">
+      <c r="B130" s="43"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E130" s="46">
+      <c r="E130" s="11">
         <v>5</v>
       </c>
-      <c r="F130" s="46">
-        <v>1</v>
-      </c>
-      <c r="G130" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H130" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I130" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J130" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K130" s="46" t="s">
+      <c r="F130" s="11">
+        <v>1</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K130" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L130" s="9" t="s">
@@ -7161,33 +7121,33 @@
       </c>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="47">
+      <c r="A131" s="38">
         <v>9.1</v>
       </c>
-      <c r="B131" s="54"/>
-      <c r="C131" s="55"/>
-      <c r="D131" s="45" t="s">
+      <c r="B131" s="45"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E131" s="46">
-        <v>1</v>
-      </c>
-      <c r="F131" s="46">
-        <v>1</v>
-      </c>
-      <c r="G131" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H131" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I131" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J131" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K131" s="46" t="s">
+      <c r="E131" s="11">
+        <v>1</v>
+      </c>
+      <c r="F131" s="11">
+        <v>1</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K131" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L131" s="9" t="s">
@@ -7198,35 +7158,35 @@
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="42">
+      <c r="A132" s="14">
         <v>10.1</v>
       </c>
-      <c r="B132" s="50" t="s">
+      <c r="B132" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="C132" s="51"/>
-      <c r="D132" s="45" t="s">
+      <c r="C132" s="42"/>
+      <c r="D132" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E132" s="45">
+      <c r="E132" s="11">
         <v>5</v>
       </c>
-      <c r="F132" s="45">
-        <v>1</v>
-      </c>
-      <c r="G132" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="H132" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I132" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J132" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K132" s="45" t="s">
+      <c r="F132" s="11">
+        <v>1</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K132" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L132" s="9" t="s">
@@ -7237,33 +7197,33 @@
       </c>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="42">
+      <c r="A133" s="14">
         <v>10.2</v>
       </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="45" t="s">
+      <c r="B133" s="43"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E133" s="45">
-        <v>1</v>
-      </c>
-      <c r="F133" s="45">
-        <v>1</v>
-      </c>
-      <c r="G133" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H133" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I133" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J133" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K133" s="45" t="s">
+      <c r="E133" s="11">
+        <v>1</v>
+      </c>
+      <c r="F133" s="11">
+        <v>1</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K133" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L133" s="9" t="s">
@@ -7274,33 +7234,33 @@
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="42">
+      <c r="A134" s="14">
         <v>10.3</v>
       </c>
-      <c r="B134" s="52"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="45" t="s">
+      <c r="B134" s="43"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E134" s="45">
-        <v>1</v>
-      </c>
-      <c r="F134" s="45">
-        <v>1</v>
-      </c>
-      <c r="G134" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H134" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I134" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J134" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K134" s="45" t="s">
+      <c r="E134" s="11">
+        <v>1</v>
+      </c>
+      <c r="F134" s="11">
+        <v>1</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K134" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L134" s="9" t="s">
@@ -7311,33 +7271,33 @@
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="42">
+      <c r="A135" s="14">
         <v>10.4</v>
       </c>
-      <c r="B135" s="52"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="45" t="s">
+      <c r="B135" s="43"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E135" s="45">
+      <c r="E135" s="11">
         <v>5</v>
       </c>
-      <c r="F135" s="45">
-        <v>1</v>
-      </c>
-      <c r="G135" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H135" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I135" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J135" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K135" s="45" t="s">
+      <c r="F135" s="11">
+        <v>1</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K135" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L135" s="9" t="s">
@@ -7348,33 +7308,33 @@
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="42">
+      <c r="A136" s="14">
         <v>10.5</v>
       </c>
-      <c r="B136" s="52"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="45" t="s">
+      <c r="B136" s="43"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E136" s="45">
-        <v>1</v>
-      </c>
-      <c r="F136" s="45">
-        <v>1</v>
-      </c>
-      <c r="G136" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H136" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I136" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J136" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K136" s="45" t="s">
+      <c r="E136" s="11">
+        <v>1</v>
+      </c>
+      <c r="F136" s="11">
+        <v>1</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K136" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L136" s="9" t="s">
@@ -7385,33 +7345,33 @@
       </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="42">
+      <c r="A137" s="14">
         <v>10.6</v>
       </c>
-      <c r="B137" s="52"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="45" t="s">
+      <c r="B137" s="43"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E137" s="45">
+      <c r="E137" s="11">
         <v>5</v>
       </c>
-      <c r="F137" s="45">
-        <v>1</v>
-      </c>
-      <c r="G137" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="H137" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I137" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="J137" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K137" s="45" t="s">
+      <c r="F137" s="11">
+        <v>1</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K137" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L137" s="9" t="s">
@@ -7422,31 +7382,31 @@
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="42">
+      <c r="A138" s="14">
         <v>10.7</v>
       </c>
-      <c r="B138" s="54"/>
-      <c r="C138" s="55"/>
-      <c r="D138" s="45" t="s">
+      <c r="B138" s="45"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E138" s="45">
-        <v>1</v>
-      </c>
-      <c r="F138" s="45">
-        <v>1</v>
-      </c>
-      <c r="G138" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H138" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I138" s="45"/>
-      <c r="J138" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="K138" s="45" t="s">
+      <c r="E138" s="11">
+        <v>1</v>
+      </c>
+      <c r="F138" s="11">
+        <v>1</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K138" s="11" t="s">
         <v>35</v>
       </c>
       <c r="L138" s="9" t="s">
